--- a/Data_science_outputs_highlands/Graphs/Third/1/Montlhy_consumption_2.xlsx
+++ b/Data_science_outputs_highlands/Graphs/Third/1/Montlhy_consumption_2.xlsx
@@ -475,16 +475,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2716.726445466667</v>
+        <v>1473.695367983333</v>
       </c>
       <c r="C2" t="n">
-        <v>1145.934473949999</v>
+        <v>233.1307478333333</v>
       </c>
       <c r="D2" t="n">
-        <v>1239.365402033333</v>
+        <v>126.0437647833333</v>
       </c>
       <c r="E2" t="n">
-        <v>311.2629836</v>
+        <v>320.80864255</v>
       </c>
       <c r="F2" t="n">
         <v>11.904</v>
@@ -498,16 +498,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2546.8461963</v>
+        <v>1376.736115166666</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1153.0274232</v>
+        <v>109.9424002</v>
       </c>
       <c r="E3" t="n">
-        <v>282.7822505666666</v>
+        <v>313.5764523166666</v>
       </c>
       <c r="F3" t="n">
         <v>32.016</v>
@@ -521,16 +521,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2733.241406083333</v>
+        <v>1489.607043666666</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>1236.027072083333</v>
+        <v>123.5127591</v>
       </c>
       <c r="E4" t="n">
-        <v>314.3310941166667</v>
+        <v>322.91717435</v>
       </c>
       <c r="F4" t="n">
         <v>56.544</v>
@@ -544,16 +544,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>2642.571841516666</v>
+        <v>1422.604374766666</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1187.838368</v>
+        <v>112.6887244666667</v>
       </c>
       <c r="E5" t="n">
-        <v>296.5018658833334</v>
+        <v>315.2937376833333</v>
       </c>
       <c r="F5" t="n">
         <v>76.68000000000001</v>
@@ -567,16 +567,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>2717.997230799999</v>
+        <v>1481.504377116666</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>1240.116390533333</v>
+        <v>122.50109885</v>
       </c>
       <c r="E6" t="n">
-        <v>306.7278741333333</v>
+        <v>326.2142301833334</v>
       </c>
       <c r="F6" t="n">
         <v>101.928</v>
@@ -590,16 +590,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>2622.701519066666</v>
+        <v>1432.176874233333</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1197.5380756</v>
+        <v>111.8867176833333</v>
       </c>
       <c r="E7" t="n">
-        <v>294.4950061166667</v>
+        <v>301.6575090166667</v>
       </c>
       <c r="F7" t="n">
         <v>120.6</v>
@@ -613,16 +613,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>2725.5250601</v>
+        <v>1479.538616933333</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>1239.8920777</v>
+        <v>116.30772455</v>
       </c>
       <c r="E8" t="n">
-        <v>309.5659264833334</v>
+        <v>316.9595234333333</v>
       </c>
       <c r="F8" t="n">
         <v>147.312</v>
@@ -636,16 +636,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>2726.587737816666</v>
+        <v>1464.7066949</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>1235.879434933333</v>
+        <v>118.5527379666667</v>
       </c>
       <c r="E9" t="n">
-        <v>297.0888782333333</v>
+        <v>311.9925544333333</v>
       </c>
       <c r="F9" t="n">
         <v>170.376</v>
@@ -659,16 +659,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>2641.319648516666</v>
+        <v>1420.759287566666</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1197.93307795</v>
+        <v>106.5407004666667</v>
       </c>
       <c r="E10" t="n">
-        <v>290.51709005</v>
+        <v>316.2634639333333</v>
       </c>
       <c r="F10" t="n">
         <v>186.84</v>
@@ -682,16 +682,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>2725.976781833333</v>
+        <v>1463.407953983333</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1227.072051066667</v>
+        <v>124.9501023166667</v>
       </c>
       <c r="E11" t="n">
-        <v>301.57864965</v>
+        <v>315.56120565</v>
       </c>
       <c r="F11" t="n">
         <v>215.76</v>
@@ -705,16 +705,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>2631.295484833333</v>
+        <v>1413.469606533333</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>1202.258413916667</v>
+        <v>111.7390574333333</v>
       </c>
       <c r="E12" t="n">
-        <v>292.8033013166666</v>
+        <v>310.1227721</v>
       </c>
       <c r="F12" t="n">
         <v>230.76</v>
@@ -728,16 +728,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>2643.034288616666</v>
+        <v>1434.6545009</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1198.797756233333</v>
+        <v>117.40773535</v>
       </c>
       <c r="E13" t="n">
-        <v>304.0667148333333</v>
+        <v>315.0854757666667</v>
       </c>
       <c r="F13" t="n">
         <v>252.36</v>
